--- a/xlsx/世界七大工程奇迹_intext.xlsx
+++ b/xlsx/世界七大工程奇迹_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>世界七大工程奇迹</t>
   </si>
@@ -29,13 +29,13 @@
     <t>近代史</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界七大工程奇迹</t>
+    <t>政策_政策_美国_世界七大工程奇迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>現代</t>
+    <t>现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%B7%A5%E7%A8%8B</t>
@@ -47,37 +47,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>巴拿馬運河</t>
+    <t>巴拿马运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>帝國大廈</t>
+    <t>帝国大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門大橋</t>
+    <t>金门大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>加拿大國家電視塔</t>
+    <t>加拿大国家电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%B3%B0%E6%99%AE%E5%A4%A7%E5%A3%A9</t>
   </si>
   <si>
-    <t>伊泰普大壩</t>
+    <t>伊泰普大坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E6%B5%B7%E5%BA%95%E9%9A%A7%E9%81%93</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%9C%B0%E5%B3%BD</t>
   </si>
   <si>
-    <t>巴拿馬地峽</t>
+    <t>巴拿马地峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%BC%8A%E5%A3%AB%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>蘇伊士運河</t>
+    <t>苏伊士运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%98%A7%E7%96%BE</t>
   </si>
   <si>
-    <t>瘧疾</t>
+    <t>疟疾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%86%B1%E7%97%85</t>
   </si>
   <si>
-    <t>黃熱病</t>
+    <t>黄热病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%81%A9%E8%A7%92</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E6%B2%B3</t>
   </si>
   <si>
-    <t>萊茵河</t>
+    <t>莱茵河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B9%B3%E9%9D%A2</t>
@@ -227,37 +227,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%88%E5%BE%B7%E6%B5%B7</t>
   </si>
   <si>
-    <t>須德海</t>
+    <t>须德海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%A0%83</t>
   </si>
   <si>
-    <t>公頃</t>
+    <t>公顷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>世界貿易中心</t>
+    <t>世界贸易中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>克萊斯勒大廈</t>
+    <t>克莱斯勒大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>西爾斯大樓</t>
+    <t>西尔斯大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B8%82</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E7%B4%A2%E6%A9%8B</t>
   </si>
   <si>
-    <t>懸索橋</t>
+    <t>悬索桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大國家鐵路公司</t>
+    <t>加拿大国家铁路公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B3%BD%E5%A4%A7%E5%A3%A9</t>
   </si>
   <si>
-    <t>三峽大壩</t>
+    <t>三峡大坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A7%E9%81%93</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%80%AB%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>英倫海峽</t>
+    <t>英伦海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -395,31 +395,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>火車</t>
+    <t>火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>大客車</t>
+    <t>大客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>自行車</t>
+    <t>自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -431,15 +431,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%A5%87%E8%B7%A1</t>
   </si>
   <si>
-    <t>世界七大奇跡</t>
+    <t>世界七大奇迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
   </si>
   <si>
-    <t>世界七大奇迹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
   </si>
   <si>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%83%8F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神像</t>
+    <t>奥林匹亚宙斯神像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%97%E5%B3%B6%E5%A4%AA%E9%99%BD%E7%A5%9E%E9%8A%85%E5%83%8F</t>
   </si>
   <si>
-    <t>羅得島太陽神銅像</t>
+    <t>罗得岛太阳神铜像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E7%81%AF%E5%A1%94</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%A2%E8%8F%B2%E4%BA%9E%E5%A4%A7%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>聖索菲亞大教堂</t>
+    <t>圣索菲亚大教堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%96%A9%E9%87%91%E5%AD%97%E5%A1%94%E7%BE%A4</t>
   </si>
   <si>
-    <t>吉薩金字塔群</t>
+    <t>吉萨金字塔群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%89%B9%E6%8B%89</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7%E5%9F%BA%E7%9D%A3%E5%83%8F</t>
   </si>
   <si>
-    <t>里約熱內盧基督像</t>
+    <t>里约热内卢基督像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%98%E6%AF%94%E4%B8%98</t>
@@ -575,21 +572,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E8%BF%90%E6%B2%B3</t>
   </si>
   <si>
-    <t>巴拿马运河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E5%A4%A7%E5%8E%A6</t>
   </si>
   <si>
-    <t>帝国大厦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%A4%A7%E6%A1%A5</t>
   </si>
   <si>
-    <t>金门大桥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%B3%B0%E6%99%AE%E6%B0%B4%E7%94%B5%E7%AB%99</t>
   </si>
   <si>
@@ -599,19 +587,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E8%87%AA%E7%84%B6%E5%A5%87%E8%A7%80</t>
   </si>
   <si>
-    <t>世界七大自然奇觀</t>
+    <t>世界七大自然奇观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>科羅拉多大峽谷</t>
+    <t>科罗拉多大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A0%A1%E7%A4%81</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7</t>
   </si>
   <si>
-    <t>里約熱內盧</t>
+    <t>里约热内卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E7%BA%B3%E5%B7%B4%E6%8B%89%E6%B9%BE</t>
@@ -635,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E7%A9%86%E6%9C%97%E7%91%AA%E5%B3%B0</t>
   </si>
   <si>
-    <t>珠穆朗瑪峰</t>
+    <t>珠穆朗玛峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A5%B5</t>
   </si>
   <si>
-    <t>兩極</t>
+    <t>两极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%85%89</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8A%A0%E5%B0%94%E6%B9%96</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9%E5%8D%8F%E4%BC%9A</t>
@@ -3100,7 +3088,7 @@
         <v>139</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3126,10 +3114,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3155,10 +3143,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3184,10 +3172,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3213,10 +3201,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3242,10 +3230,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3271,10 +3259,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3300,10 +3288,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3329,10 +3317,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3358,10 +3346,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3387,10 +3375,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3416,10 +3404,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3445,10 +3433,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3474,10 +3462,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3503,10 +3491,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3532,10 +3520,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3561,10 +3549,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3590,10 +3578,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3619,10 +3607,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3648,10 +3636,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3677,10 +3665,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3706,10 +3694,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3735,10 +3723,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3764,10 +3752,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3793,10 +3781,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3822,10 +3810,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3851,10 +3839,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3880,10 +3868,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3909,10 +3897,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3938,10 +3926,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3967,10 +3955,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3996,10 +3984,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4025,10 +4013,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4054,10 +4042,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4083,10 +4071,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4112,10 +4100,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4141,10 +4129,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4170,10 +4158,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4199,10 +4187,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4228,10 +4216,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4257,10 +4245,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4286,10 +4274,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4315,10 +4303,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4344,10 +4332,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4373,10 +4361,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4402,10 +4390,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4431,10 +4419,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4460,10 +4448,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4489,10 +4477,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4518,10 +4506,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>13</v>
@@ -4547,10 +4535,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
